--- a/data/6_tables/tables_appendix/Table11_CE_Table_All_Policies_no_LBD_193.xlsx
+++ b/data/6_tables/tables_appendix/Table11_CE_Table_All_Policies_no_LBD_193.xlsx
@@ -3100,7 +3100,7 @@
         <v>1.1642497777938843</v>
       </c>
       <c r="C16">
-        <v>-1.6135918375265701</v>
+        <v>-1.6135918375265881</v>
       </c>
       <c r="D16">
         <v>474.39144897460938</v>
@@ -3318,16 +3318,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.99798816442489624</v>
+        <v>0.99801546335220337</v>
       </c>
       <c r="C29">
-        <v>658.85776931109262</v>
+        <v>658.86052713161371</v>
       </c>
       <c r="D29">
-        <v>6041.19775390625</v>
+        <v>6087.25146484375</v>
       </c>
       <c r="E29">
-        <v>42.8043212890625</v>
+        <v>42.803764343261719</v>
       </c>
     </row>
     <row r="30">
@@ -3335,16 +3335,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.99554687738418579</v>
+        <v>0.99560713768005371</v>
       </c>
       <c r="C30">
-        <v>658.85776931109262</v>
+        <v>658.86052713161371</v>
       </c>
       <c r="D30">
-        <v>2729.279296875</v>
+        <v>2749.9912109375</v>
       </c>
       <c r="E30">
-        <v>42.8043212890625</v>
+        <v>42.803764343261719</v>
       </c>
     </row>
     <row r="31">
@@ -3352,16 +3352,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.99871450662612915</v>
+        <v>0.99873197078704834</v>
       </c>
       <c r="C31">
-        <v>658.85776931109262</v>
+        <v>658.86052713161371</v>
       </c>
       <c r="D31">
-        <v>9454.5322265625</v>
+        <v>9526.7041015625</v>
       </c>
       <c r="E31">
-        <v>42.8043212890625</v>
+        <v>42.803764343261719</v>
       </c>
     </row>
     <row r="32">
@@ -3369,16 +3369,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.99972075223922729</v>
+        <v>0.99972456693649292</v>
       </c>
       <c r="C32">
-        <v>658.85776931109262</v>
+        <v>658.86052713161371</v>
       </c>
       <c r="D32">
-        <v>43526.24609375</v>
+        <v>43859.125</v>
       </c>
       <c r="E32">
-        <v>42.8043212890625</v>
+        <v>42.803764343261719</v>
       </c>
     </row>
     <row r="33">
